--- a/data/air_info/上海-洛杉矶.xlsx
+++ b/data/air_info/上海-洛杉矶.xlsx
@@ -1,30 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\air_info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\PycharmProjects\BJUT_dsc\data\air_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A251012-702C-464E-B7D3-7B6A920B9E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5E3C59-386C-4990-8D60-C344C8B1947D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>行程时间：12 小时</t>
-  </si>
-  <si>
     <t>东航经济舱Boeing 777MU 583</t>
   </si>
   <si>
@@ -53,6 +61,10 @@
   </si>
   <si>
     <t>机票价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 小时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,7 +421,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -425,25 +437,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -451,19 +463,19 @@
         <v>0.54513888888888884</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2">
         <v>0.4201388888888889</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
         <v>3969</v>
